--- a/Wetspot/36807/Area  Room Breakdown for Conqa ITPs - External.xlsx
+++ b/Wetspot/36807/Area  Room Breakdown for Conqa ITPs - External.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\PROJECTS LIVE\PROJECT LIVE 2023\C23006- New Footscray Hospital - MULTIPLEX\4. Project Management\1. OHSE &amp; Quality Manuals\ITP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Wetspot\36807\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26F9EE-615B-43B1-AB48-4CF08109E721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E0BA7D-0C02-4440-A71D-B5A60A81E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A04F471-9AAE-40DF-AB1B-DC75B67506C3}"/>
+    <workbookView xWindow="8430" yWindow="1200" windowWidth="26775" windowHeight="17745" xr2:uid="{6A04F471-9AAE-40DF-AB1B-DC75B67506C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$F$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -174,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +187,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,15 +242,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,7 +588,7 @@
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,295 +806,296 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="B23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="B25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:F30" xr:uid="{4173419E-186E-47BA-986A-CC9E4DADCC09}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:F30">
     <sortCondition ref="C3:C30"/>
   </sortState>
